--- a/imageCreationExcel/back/108/108_1.xlsx
+++ b/imageCreationExcel/back/108/108_1.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,30 +495,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9419374213788286</v>
+        <v>1.002456517481565</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.560766366808609</v>
+        <v>0.7468436381372975</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>20.34825508325368</v>
+        <v>0.804077434199168</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_2_contrast0.942_sharpness0.561_equalization20.348.jpg</t>
+          <t>1_1_contrast1.002_gamma0.747_sharpness0.804.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.090720340922264</v>
+        <v>18.77861571573612</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8797223533895593</v>
+        <v>1.167540136998261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4.974585826732691</v>
+        <v>0.6529466543587934</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_2_contrast1.091_gamma0.88_equalization4.975.jpg</t>
+          <t>2_I_brightness18.779_contrast1.168_gamma0.653.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6423035675635458</v>
+        <v>0.8141807806940344</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.05650972703372803</v>
+        <v>0.1792329577898335</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>27.5073641158554</v>
+        <v>18.09396947043922</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_8_gamma0.642_sharpness0.057_equalization27.507.jpg</t>
+          <t>3_2_gamma0.814_sharpness0.179_equalization18.094.jpg</t>
         </is>
       </c>
     </row>
@@ -612,16 +612,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21.47250911021127</v>
+        <v>1.090859532528432</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,22 +629,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8405713325494976</v>
+        <v>0.6228036860915966</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.6620677475733294</v>
+        <v>23.47418507534855</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_B_brightness21.473_gamma0.841_sharpness0.662.jpg</t>
+          <t>4_I_contrast1.091_gamma0.623_equalization23.474.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17.35737999997622</v>
+        <v>16.05103089623911</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9420596422915376</v>
+        <v>1.110688097534403</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.3043641100511985</v>
+        <v>0.8811868534607283</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_9_brightness17.357_contrast0.942_sharpness0.304.jpg</t>
+          <t>5_1_brightness16.051_contrast1.111_sharpness0.881.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.080639160867302</v>
+        <v>5.242017684173947</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.7603200520389578</v>
+        <v>0.6017702351240585</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>19.12053876891537</v>
+        <v>0.5397565050866604</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_B_contrast1.081_sharpness0.76_equalization19.121.jpg</t>
+          <t>6_1_brightness5.242_gamma0.602_sharpness0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29.27447655727007</v>
+        <v>1.133368379568073</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.004366871279286</v>
+        <v>0.7111644912129218</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.5666212963122274</v>
+        <v>24.27870143827779</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_I_brightness29.274_contrast1.004_sharpness0.567.jpg</t>
+          <t>7_8_contrast1.133_gamma0.711_equalization24.279.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.147148771966521</v>
+        <v>1.030301695551364</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.6107535566781938</v>
+        <v>1.050539334021314</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15.64346016843594</v>
+        <v>9.852215291580471</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_I_contrast1.147_gamma0.611_equalization15.643.jpg</t>
+          <t>8_9_contrast1.03_gamma1.051_equalization9.852.jpg</t>
         </is>
       </c>
     </row>
@@ -831,15 +831,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9335248191244859</v>
+        <v>0.8916174784564828</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.912764588814253</v>
+        <v>0.9538493965979387</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>17.46501346574374</v>
+        <v>21.82162805730866</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_0_contrast0.934_gamma0.913_equalization17.465.jpg</t>
+          <t>9_0_contrast0.892_sharpness0.954_equalization21.822.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.153958024113977</v>
+        <v>15.65299956738652</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8763118250273878</v>
+        <v>1.115661457177711</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>28.583125606375</v>
+        <v>0.9721127575572128</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_P_contrast1.154_gamma0.876_equalization28.583.jpg</t>
+          <t>10_9_brightness15.653_contrast1.116_sharpness0.972.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,15 +915,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9645273866225674</v>
+        <v>0.9585222599583273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9097571477790702</v>
+        <v>0.2714494101710022</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>11.25568570893281</v>
+        <v>26.30960822566563</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_7_contrast0.965_gamma0.91_equalization11.256.jpg</t>
+          <t>11_8_contrast0.959_sharpness0.271_equalization26.31.jpg</t>
         </is>
       </c>
     </row>
@@ -953,11 +953,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9618426226738785</v>
+        <v>0.5117709105462179</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9442457408412277</v>
+        <v>0.5412246474215826</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>12.78589128043855</v>
+        <v>21.70912133595951</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_2_contrast0.962_sharpness0.944_equalization12.786.jpg</t>
+          <t>12_2_gamma0.512_sharpness0.541_equalization21.709.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.149701340297824</v>
+        <v>6.207056917000382</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8699402535754966</v>
+        <v>1.153528943528574</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>15.28477445942302</v>
+        <v>0.9645670874155192</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_B_contrast1.15_sharpness0.87_equalization15.285.jpg</t>
+          <t>13_8_brightness6.207_contrast1.154_gamma0.965.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.181057470642946</v>
+        <v>0.8496176496479086</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5663496980933124</v>
+        <v>0.7128229616111496</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>23.14649176163201</v>
+        <v>14.56476863601412</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_2_contrast1.181_gamma0.566_equalization23.146.jpg</t>
+          <t>14_T_contrast0.85_gamma0.713_equalization14.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.6530450374970921</v>
+        <v>1.172316108970149</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.3102395755143964</v>
+        <v>0.7983898250227639</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>16.16448267513148</v>
+        <v>0.5603526412521017</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_B_gamma0.653_sharpness0.31_equalization16.164.jpg</t>
+          <t>15_S_contrast1.172_gamma0.798_sharpness0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,15 +1125,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10.27521249618007</v>
+        <v>8.193822401927928</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.8031361760545314</v>
+        <v>0.6593833477040606</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.1641918894177899</v>
+        <v>0.4096322604722571</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_2_brightness10.275_contrast0.803_sharpness0.164.jpg</t>
+          <t>16_3_brightness8.194_gamma0.659_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21.88094616478345</v>
+        <v>0.9205715835678525</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.7496504558864514</v>
+        <v>0.521601843179</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.9551223537618931</v>
+        <v>17.36280835813783</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_I_brightness21.881_gamma0.75_sharpness0.955.jpg</t>
+          <t>17_T_contrast0.921_sharpness0.522_equalization17.363.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,24 +1200,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8767941201050566</v>
+        <v>0.7251138916033036</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.7358240683541815</v>
+        <v>0.7637815567802251</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>22.25051969998612</v>
+        <v>20.0907481095782</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_B_contrast0.877_gamma0.736_equalization22.251.jpg</t>
+          <t>18_0_gamma0.725_sharpness0.764_equalization20.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12.82217471647629</v>
+        <v>19.19779299486312</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8373269739802214</v>
+        <v>0.7291336049956749</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.03436151290347615</v>
+        <v>0.9268852801797771</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_S_brightness12.822_gamma0.837_sharpness0.034.jpg</t>
+          <t>19_2_brightness19.198_gamma0.729_sharpness0.927.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.135129552133441</v>
+        <v>19.98544889085316</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.2178219724283639</v>
+        <v>1.174511419655517</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9.556958519081267</v>
+        <v>0.3182834141165167</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_P_contrast1.135_sharpness0.218_equalization9.557.jpg</t>
+          <t>20_7_brightness19.985_contrast1.175_sharpness0.318.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,30 +1335,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8.972496791436368</v>
+        <v>11.9030879099466</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.123468151572038</v>
+        <v>0.5612237037659835</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.9698610303848905</v>
+        <v>0.8018764371266278</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_7_brightness8.972_contrast1.123_gamma0.97.jpg</t>
+          <t>21_8_brightness11.903_gamma0.561_sharpness0.802.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.089246059196967</v>
+        <v>0.8578039081565227</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,22 +1385,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9812112664648274</v>
+        <v>1.093346577223532</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>17.44298596197751</v>
+        <v>0.4938650101026973</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_0_contrast1.089_gamma0.981_equalization17.443.jpg</t>
+          <t>22_8_contrast0.858_gamma1.093_sharpness0.494.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.11750512780133</v>
+        <v>21.28227564688532</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8735761322654788</v>
+        <v>0.6136323790045776</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>23.8573023394873</v>
+        <v>0.9193462468672455</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_2_contrast1.118_sharpness0.874_equalization23.857.jpg</t>
+          <t>23_0_brightness21.282_gamma0.614_sharpness0.919.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.150067653428492</v>
+        <v>17.7616337840576</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8696801225175386</v>
+        <v>0.5811935995928966</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>15.92283280395435</v>
+        <v>0.2914767709449727</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_2_contrast1.15_sharpness0.87_equalization15.923.jpg</t>
+          <t>24_7_brightness17.762_gamma0.581_sharpness0.291.jpg</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.19548010551838</v>
+        <v>0.8316819750977275</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5812106698785924</v>
+        <v>0.9647319351232686</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6.043940981180389</v>
+        <v>13.65575038342997</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_E_contrast1.195_sharpness0.581_equalization6.044.jpg</t>
+          <t>25_E_contrast0.832_sharpness0.965_equalization13.656.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.161839516406979</v>
+        <v>10.91347321995436</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.1658933091426608</v>
+        <v>1.154684773972418</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>16.93848651884536</v>
+        <v>0.7070222161515418</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_8_contrast1.162_sharpness0.166_equalization16.938.jpg</t>
+          <t>26_C_brightness10.913_contrast1.155_sharpness0.707.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5.616406397992196</v>
+        <v>0.646037394464079</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.7054768137204763</v>
+        <v>0.6592959349340688</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.3395387543010887</v>
+        <v>14.87572013674106</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_B_brightness5.616_gamma0.705_sharpness0.34.jpg</t>
+          <t>27_T_gamma0.646_sharpness0.659_equalization14.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.071499685094554</v>
+        <v>1.025602741646889</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.7614897866261591</v>
+        <v>0.5810104497683273</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.6728489637472593</v>
+        <v>0.6134708296326532</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_I_contrast1.071_gamma0.761_sharpness0.673.jpg</t>
+          <t>28_8_contrast1.026_gamma0.581_sharpness0.613.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,16 +1662,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>17.01565666960509</v>
+        <v>1.148964863048556</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8739195785591225</v>
+        <v>0.5007659195133193</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.7236704478038767</v>
+        <v>0.7531939314401765</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_T_brightness17.016_gamma0.874_sharpness0.724.jpg</t>
+          <t>29_1_contrast1.149_gamma0.501_sharpness0.753.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9620103777116934</v>
+        <v>23.46246626831357</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.7943847204058163</v>
+        <v>1.153722256178503</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>29.48582778113881</v>
+        <v>0.6271049363873406</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_T_gamma0.962_sharpness0.794_equalization29.486.jpg</t>
+          <t>30_8_brightness23.462_contrast1.154_sharpness0.627.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,16 +1746,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21.45821331988036</v>
+        <v>0.8178830989607579</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8510048989463648</v>
+        <v>0.6333164794312359</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.6009802885061566</v>
+        <v>25.46462568767842</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_E_brightness21.458_gamma0.851_sharpness0.601.jpg</t>
+          <t>31_I_contrast0.818_gamma0.633_equalization25.465.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.076353884800039</v>
+        <v>0.8528723177306622</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.7294596320468842</v>
+        <v>0.7420288236189645</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.3158751574449156</v>
+        <v>0.7163274107858515</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_S_contrast1.076_gamma0.729_sharpness0.316.jpg</t>
+          <t>32_B_contrast0.853_gamma0.742_sharpness0.716.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>17.97259270546395</v>
+        <v>14.12502904528221</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.197593404299909</v>
+        <v>1.067681030147496</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.968703858652429</v>
+        <v>0.7134501931783841</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_0_brightness17.973_contrast1.198_sharpness0.969.jpg</t>
+          <t>33_T_brightness14.125_contrast1.068_gamma0.713.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,15 +1881,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7.837009099137779</v>
+        <v>16.75003722357627</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.024191515236978</v>
+        <v>0.6923754042492409</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.9926081229630931</v>
+        <v>0.03883402643002945</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_9_brightness7.837_contrast1.024_sharpness0.993.jpg</t>
+          <t>34_2_brightness16.75_gamma0.692_sharpness0.039.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,15 +1923,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8268836346462741</v>
+        <v>0.9465247264136409</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.005703513060584</v>
+        <v>0.9186462262447792</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>29.13909532298995</v>
+        <v>6.412636093386446</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_7_contrast0.827_gamma1.006_equalization29.139.jpg</t>
+          <t>35_9_contrast0.947_sharpness0.919_equalization6.413.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,16 +1956,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.018878232918579</v>
+        <v>6.510069479557598</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5988224148335927</v>
+        <v>0.7010659953633583</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.3634667646263344</v>
+        <v>0.8866298965716627</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_3_contrast1.019_gamma0.599_sharpness0.363.jpg</t>
+          <t>36_E_brightness6.51_gamma0.701_sharpness0.887.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,24 +1998,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.7506413438282566</v>
+        <v>0.9703202899436697</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.6831327033985959</v>
+        <v>0.9492959894657059</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>21.4679368198362</v>
+        <v>23.61497182561313</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_9_gamma0.751_sharpness0.683_equalization21.468.jpg</t>
+          <t>37_B_contrast0.97_gamma0.949_equalization23.615.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>25.64441191995395</v>
+        <v>1.024691585594861</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,22 +2057,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8565100288258179</v>
+        <v>1.169996626101577</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.946130067828626</v>
+        <v>0.8006052644448556</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_C_brightness25.644_contrast0.857_gamma0.946.jpg</t>
+          <t>38_0_brightness1.025_contrast1.17_sharpness0.801.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.157073177139587</v>
+        <v>29.81924517795765</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.6664256105976991</v>
+        <v>1.043560215667414</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.4079390569838392</v>
+        <v>1.037495082984876</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_I_contrast1.157_gamma0.666_sharpness0.408.jpg</t>
+          <t>39_C_brightness29.819_contrast1.044_gamma1.037.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,30 +2133,30 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>17.10066935507877</v>
+        <v>13.50219173423941</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9694660813386415</v>
+        <v>1.12660004388201</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.2382637861691874</v>
+        <v>1.057139532412696</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_C_brightness17.101_gamma0.969_sharpness0.238.jpg</t>
+          <t>40_7_brightness13.502_contrast1.127_gamma1.057.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>19.96546106429421</v>
+        <v>16.49523172671555</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9287120255753654</v>
+        <v>1.013016327449205</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.3290905041061702</v>
+        <v>0.3136517092537225</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_E_brightness19.965_contrast0.929_sharpness0.329.jpg</t>
+          <t>41_2_brightness16.495_contrast1.013_sharpness0.314.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,15 +2217,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>6.635932172801224</v>
+        <v>24.02152518688892</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.5750568195653925</v>
+        <v>0.8528214661964943</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.4838367267169223</v>
+        <v>0.7838503035929147</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_E_brightness6.636_gamma0.575_sharpness0.484.jpg</t>
+          <t>42_9_brightness24.022_contrast0.853_sharpness0.784.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,30 +2259,30 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.158160085050605</v>
+        <v>1.176002510912743</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.8365101095215466</v>
+        <v>0.8549727818411522</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8.905892788377702</v>
+        <v>0.3017395245899825</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_3_contrast1.158_sharpness0.837_equalization8.906.jpg</t>
+          <t>43_C_contrast1.176_gamma0.855_sharpness0.302.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3.713535215704908</v>
+        <v>1.02716504067003</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8151808916474376</v>
+        <v>0.7003627909733123</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.7259416349580502</v>
+        <v>5.42007076744861</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_9_brightness3.714_contrast0.815_gamma0.726.jpg</t>
+          <t>44_E_contrast1.027_gamma0.7_equalization5.42.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>14.81907261272875</v>
+        <v>0.8672297181503698</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.048477539282178</v>
+        <v>0.6122918325527178</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.8094562008813397</v>
+        <v>29.08609070686184</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_0_brightness14.819_gamma1.048_sharpness0.809.jpg</t>
+          <t>45_3_gamma0.867_sharpness0.612_equalization29.086.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6.89195434669684</v>
+        <v>0.6438423741430005</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.194314169803973</v>
+        <v>0.5855161506528692</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1.036169574586174</v>
+        <v>18.83499290231314</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_S_brightness6.892_contrast1.194_gamma1.036.jpg</t>
+          <t>46_B_gamma0.644_sharpness0.586_equalization18.835.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.7236251883858812</v>
+        <v>0.9864484435046479</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.4557507459863502</v>
+        <v>0.7833881294781013</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>30.4535419215169</v>
+        <v>0.7013079128158412</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_P_gamma0.724_sharpness0.456_equalization30.454.jpg</t>
+          <t>47_3_contrast0.986_gamma0.783_sharpness0.701.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,16 +2460,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>19.7058990164405</v>
+        <v>0.9611299352263949</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.6216754434962901</v>
+        <v>1.027969287355045</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.02319656051118467</v>
+        <v>19.688724866781</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_E_brightness19.706_gamma0.622_sharpness0.023.jpg</t>
+          <t>48_0_contrast0.961_gamma1.028_equalization19.689.jpg</t>
         </is>
       </c>
     </row>
